--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H2">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>1746.216927989611</v>
+        <v>337.2526026687462</v>
       </c>
       <c r="R2">
-        <v>15715.9523519065</v>
+        <v>3035.273424018716</v>
       </c>
       <c r="S2">
-        <v>0.01810526051717649</v>
+        <v>0.003476194412718711</v>
       </c>
       <c r="T2">
-        <v>0.01810526051717649</v>
+        <v>0.003476194412718711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H3">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>24981.68769599931</v>
+        <v>29429.29008433982</v>
       </c>
       <c r="R3">
-        <v>224835.1892639938</v>
+        <v>264863.6107590584</v>
       </c>
       <c r="S3">
-        <v>0.2590170537491782</v>
+        <v>0.3033391972424376</v>
       </c>
       <c r="T3">
-        <v>0.2590170537491782</v>
+        <v>0.3033391972424376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H4">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>3821.40527464867</v>
+        <v>4501.74726887936</v>
       </c>
       <c r="R4">
-        <v>34392.64747183803</v>
+        <v>40515.72541991424</v>
       </c>
       <c r="S4">
-        <v>0.03962138777275566</v>
+        <v>0.04640126889968213</v>
       </c>
       <c r="T4">
-        <v>0.03962138777275567</v>
+        <v>0.04640126889968212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J5">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>3222.38644111604</v>
+        <v>528.2952749289586</v>
       </c>
       <c r="R5">
-        <v>29001.47797004436</v>
+        <v>4754.657474360628</v>
       </c>
       <c r="S5">
-        <v>0.0334105946794316</v>
+        <v>0.005445345917100402</v>
       </c>
       <c r="T5">
-        <v>0.0334105946794316</v>
+        <v>0.005445345917100401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J6">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>46100.02939352018</v>
@@ -818,10 +818,10 @@
         <v>414900.2645416816</v>
       </c>
       <c r="S6">
-        <v>0.4779778666904217</v>
+        <v>0.4751710241398059</v>
       </c>
       <c r="T6">
-        <v>0.4779778666904219</v>
+        <v>0.4751710241398058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J7">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>7051.841237854757</v>
@@ -880,10 +880,10 @@
         <v>63466.57114069281</v>
       </c>
       <c r="S7">
-        <v>0.0731154421255778</v>
+        <v>0.07268608430722075</v>
       </c>
       <c r="T7">
-        <v>0.07311544212557781</v>
+        <v>0.07268608430722073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>77.473134</v>
       </c>
       <c r="I8">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J8">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>544.4247250535659</v>
+        <v>89.255902436296</v>
       </c>
       <c r="R8">
-        <v>4899.822525482094</v>
+        <v>803.3031219266639</v>
       </c>
       <c r="S8">
-        <v>0.005644746263246414</v>
+        <v>0.0009199954778583888</v>
       </c>
       <c r="T8">
-        <v>0.005644746263246415</v>
+        <v>0.0009199954778583887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>77.473134</v>
       </c>
       <c r="I9">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J9">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>7788.636244024196</v>
@@ -1004,10 +1004,10 @@
         <v>70097.72619621776</v>
       </c>
       <c r="S9">
-        <v>0.08075473671757921</v>
+        <v>0.08028051845983403</v>
       </c>
       <c r="T9">
-        <v>0.08075473671757921</v>
+        <v>0.08028051845983403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>77.473134</v>
       </c>
       <c r="I10">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J10">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>1191.414126516374</v>
@@ -1066,10 +1066,10 @@
         <v>10722.72713864737</v>
       </c>
       <c r="S10">
-        <v>0.01235291148463288</v>
+        <v>0.01228037114334232</v>
       </c>
       <c r="T10">
-        <v>0.01235291148463288</v>
+        <v>0.01228037114334232</v>
       </c>
     </row>
   </sheetData>
